--- a/hw12/hw12.xlsx
+++ b/hw12/hw12.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack3\Documents\Jack\NTHU\2020_spring\Algorithm_EE39800\hw12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE49EE7-D0E9-48FA-8836-91DEDE70DE54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81944B59-A5BA-453F-8775-81B51219CB2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +44,10 @@
   </si>
   <si>
     <t>CPU_times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N^4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,6 +136,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>N</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> v.s. CPU Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -231,22 +273,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.5101899999999993E-5</c:v>
+                  <c:v>1.3995199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1219300000000002E-3</c:v>
+                  <c:v>3.7488899999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0869000000000001E-3</c:v>
+                  <c:v>2.2143800000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38212200000000002</c:v>
+                  <c:v>1.1564000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7777700000000003</c:v>
+                  <c:v>31.226700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8229900000000008</c:v>
+                  <c:v>46.956600000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -258,7 +300,107 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N^4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.2500000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0625000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.90625E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-71A4-408B-8FDF-251601944C06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -517,6 +659,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1121,16 +1294,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1421,18 +1594,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D8"/>
+  <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1442,74 +1616,101 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>7.5101899999999993E-5</v>
+        <v>1.3995199999999999E-4</v>
       </c>
       <c r="D2">
         <v>28</v>
       </c>
+      <c r="E2">
+        <f>B2*B2*B2*B2 / 10000000</f>
+        <v>6.2500000000000001E-5</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>2.1219300000000002E-3</v>
+        <v>3.7488899999999999E-3</v>
       </c>
       <c r="D3">
         <v>84</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="0">B3*B3*B3*B3 / 10000000</f>
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>15</v>
       </c>
       <c r="C4">
-        <v>5.0869000000000001E-3</v>
+        <v>2.2143800000000002E-2</v>
       </c>
       <c r="D4">
         <v>105</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5.0625000000000002E-3</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>20</v>
       </c>
       <c r="C5">
-        <v>0.38212200000000002</v>
+        <v>1.1564000000000001</v>
       </c>
       <c r="D5">
         <v>132</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>25</v>
       </c>
       <c r="C6">
-        <v>8.7777700000000003</v>
+        <v>31.226700000000001</v>
       </c>
       <c r="D6">
         <v>153</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3.90625E-2</v>
+      </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>30</v>
       </c>
       <c r="C7">
-        <v>8.8229900000000008</v>
+        <v>46.956600000000002</v>
       </c>
       <c r="D7">
         <v>166</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>8.1000000000000003E-2</v>
+      </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
     </row>
   </sheetData>
